--- a/Assets/Excels/AddressableTable.xlsx
+++ b/Assets/Excels/AddressableTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdms\OneDrive\문서\Defense\Deffence\Deffence\Deffence\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Study\Study\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B69B36-02A6-4EC3-97A8-22E3B09A6F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD1395-360B-44CB-A92A-E2E0037A3FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DBDA8716-169F-48FA-B032-CDA1DFF72823}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{DBDA8716-169F-48FA-B032-CDA1DFF72823}"/>
   </bookViews>
   <sheets>
     <sheet name="_AddressableTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <t>Assets/Addressables/Test/Test.prefab</t>
   </si>
   <si>
-    <t>GO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EAddressableID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,27 @@
   <si>
     <t>테스트 용</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌딩 건설 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Addressables/Prefab/BuildPoint.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Addressables/Prefab/ArcherTower_Lv1.prefab</t>
+  </si>
+  <si>
+    <t>궁수타워LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Addressables/Prefab/UI/Popup/MessageBox/Popup_MessageBox.prefab</t>
   </si>
 </sst>
 </file>
@@ -495,26 +512,26 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -529,60 +546,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B99B454-7538-4E26-A5DD-85528C811748}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B8" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>A2 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>A3 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>A4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excels/AddressableTable.xlsx
+++ b/Assets/Excels/AddressableTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Study\Study\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD1395-360B-44CB-A92A-E2E0037A3FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8F9773-27B4-4E93-AFE5-1BB4841FA0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{DBDA8716-169F-48FA-B032-CDA1DFF72823}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DBDA8716-169F-48FA-B032-CDA1DFF72823}"/>
   </bookViews>
   <sheets>
     <sheet name="_AddressableTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Addressables/Test/Test.prefab</t>
-  </si>
-  <si>
     <t>EAddressableID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빌딩 건설 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +100,20 @@
   </si>
   <si>
     <t>Assets/Addressables/Prefab/UI/Popup/MessageBox/Popup_MessageBox.prefab</t>
+  </si>
+  <si>
+    <t>적 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Addressables/Model/Enemy_Mage.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Addressables/Model/Enemy_Archer.prefab</t>
+  </si>
+  <si>
+    <t>적 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,26 +519,26 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -546,16 +553,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B99B454-7538-4E26-A5DD-85528C811748}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A7:XFD8"/>
+      <selection activeCell="C9" activeCellId="1" sqref="A6 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -571,13 +578,14 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <f>0 + 1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -586,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -598,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -613,12 +621,21 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>A5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
